--- a/biology/Médecine/Signes_biologiques_de_la_mort/Signes_biologiques_de_la_mort.xlsx
+++ b/biology/Médecine/Signes_biologiques_de_la_mort/Signes_biologiques_de_la_mort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les signes biologiques de la mort sont[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les signes biologiques de la mort sont :
 Arrêt cardio-circulatoire et respiratoire (absence de pouls, de respiration, de tension artérielle)
 Abolition totale de la conscience, de la sensibilité
 Aréflexie (absence de réflexe)
@@ -521,10 +533,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant même l'antiquité, l'absence de souffle est considéré comme un signe de la mort.
-L'utilisation du pouls n'est venue qu'après sa découverte, vers le XVIIe siècle en Europe, possiblement depuis le IIIe siècle avant J.C.[2].
+L'utilisation du pouls n'est venue qu'après sa découverte, vers le XVIIe siècle en Europe, possiblement depuis le IIIe siècle avant J.C..
 Vers le XVIIIe siècle les techniques de vérification du décès en usage sont remis en cause par plusieurs médecins.
 </t>
         </is>
